--- a/artfynd/A 30035-2024 artfynd.xlsx
+++ b/artfynd/A 30035-2024 artfynd.xlsx
@@ -1688,7 +1688,7 @@
         <v>94391986</v>
       </c>
       <c r="B10" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
